--- a/data_year/zb/人民生活/农村居民主要食品消费量.xlsx
+++ b/data_year/zb/人民生活/农村居民主要食品消费量.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -566,34 +566,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6.3</v>
+        <v>6.3283883897</v>
       </c>
       <c r="C4" t="n">
-        <v>32.3</v>
+        <v>32.3374602552</v>
       </c>
       <c r="D4" t="n">
-        <v>7.2</v>
+        <v>7.1504456188</v>
       </c>
       <c r="E4" t="n">
-        <v>7.1</v>
+        <v>7.1138842404</v>
       </c>
       <c r="F4" t="n">
-        <v>159.5</v>
+        <v>159.5097085919</v>
       </c>
       <c r="G4" t="n">
-        <v>23.1</v>
+        <v>23.090751087</v>
       </c>
       <c r="H4" t="n">
-        <v>90.3</v>
+        <v>90.33612469169999</v>
       </c>
       <c r="I4" t="n">
-        <v>8.300000000000001</v>
+        <v>8.29643443</v>
       </c>
       <c r="J4" t="n">
-        <v>10.1</v>
+        <v>10.0747204595</v>
       </c>
       <c r="K4" t="n">
-        <v>1.3</v>
+        <v>1.3232692366</v>
       </c>
     </row>
     <row r="5">
@@ -603,34 +603,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.6</v>
+        <v>6.629517</v>
       </c>
       <c r="C5" t="n">
-        <v>36.8</v>
+        <v>36.813159</v>
       </c>
       <c r="D5" t="n">
-        <v>7.5</v>
+        <v>7.488134</v>
       </c>
       <c r="E5" t="n">
-        <v>7.9</v>
+        <v>7.908716</v>
       </c>
       <c r="F5" t="n">
-        <v>157.2</v>
+        <v>157.236327</v>
       </c>
       <c r="G5" t="n">
-        <v>22.7</v>
+        <v>22.708032</v>
       </c>
       <c r="H5" t="n">
-        <v>91.5</v>
+        <v>91.45995000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>8.5</v>
+        <v>8.484249</v>
       </c>
       <c r="J5" t="n">
-        <v>10.2</v>
+        <v>10.187859</v>
       </c>
       <c r="K5" t="n">
-        <v>1.4</v>
+        <v>1.357324</v>
       </c>
     </row>
     <row r="6">
@@ -640,34 +640,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.8971104791486</v>
+        <v>6.8971104791</v>
       </c>
       <c r="C6" t="n">
-        <v>38.3694385818957</v>
+        <v>38.3694385819</v>
       </c>
       <c r="D6" t="n">
-        <v>7.4221984722868</v>
+        <v>7.4221984723</v>
       </c>
       <c r="E6" t="n">
-        <v>7.870911943321</v>
+        <v>7.8709119433</v>
       </c>
       <c r="F6" t="n">
-        <v>154.636488817766</v>
+        <v>154.6364888178</v>
       </c>
       <c r="G6" t="n">
-        <v>23.6061410077003</v>
+        <v>23.6061410077</v>
       </c>
       <c r="H6" t="n">
-        <v>90.1904229178127</v>
+        <v>90.19042291780001</v>
       </c>
       <c r="I6" t="n">
-        <v>8.9368747739074</v>
+        <v>8.9368747739</v>
       </c>
       <c r="J6" t="n">
-        <v>10.1103700675227</v>
+        <v>10.1103700675</v>
       </c>
       <c r="K6" t="n">
-        <v>1.4</v>
+        <v>1.3678214456</v>
       </c>
     </row>
     <row r="7">
@@ -677,34 +677,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.9050770175911</v>
+        <v>6.9050770176</v>
       </c>
       <c r="C7" t="n">
-        <v>39.875313425018</v>
+        <v>39.875313425</v>
       </c>
       <c r="D7" t="n">
-        <v>7.7636922750956</v>
+        <v>7.7636922751</v>
       </c>
       <c r="E7" t="n">
-        <v>7.9858981824827</v>
+        <v>7.9858981825</v>
       </c>
       <c r="F7" t="n">
-        <v>148.533591381177</v>
+        <v>148.5335913812</v>
       </c>
       <c r="G7" t="n">
-        <v>27.4670007105003</v>
+        <v>27.4670007105</v>
       </c>
       <c r="H7" t="n">
-        <v>87.4812917322399</v>
+        <v>87.48129173220001</v>
       </c>
       <c r="I7" t="n">
-        <v>8.403206575156</v>
+        <v>8.4032065752</v>
       </c>
       <c r="J7" t="n">
-        <v>9.914570736355699</v>
+        <v>9.9145707364</v>
       </c>
       <c r="K7" t="n">
-        <v>1.3</v>
+        <v>1.3421019716</v>
       </c>
     </row>
     <row r="8">
@@ -714,34 +714,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.2625067210797</v>
+        <v>7.2625067211</v>
       </c>
       <c r="C8" t="n">
-        <v>43.28697750567</v>
+        <v>43.2869775057</v>
       </c>
       <c r="D8" t="n">
-        <v>9.5932565293898</v>
+        <v>9.5932565294</v>
       </c>
       <c r="E8" t="n">
-        <v>10.0093260245345</v>
+        <v>10.0093260245</v>
       </c>
       <c r="F8" t="n">
-        <v>154.785427827141</v>
+        <v>154.7854278271</v>
       </c>
       <c r="G8" t="n">
-        <v>24.6534143661694</v>
+        <v>24.6534143662</v>
       </c>
       <c r="H8" t="n">
-        <v>89.46981795235661</v>
+        <v>89.46981795240001</v>
       </c>
       <c r="I8" t="n">
-        <v>9.6070900975221</v>
+        <v>9.6070900975</v>
       </c>
       <c r="J8" t="n">
-        <v>9.823318570185799</v>
+        <v>9.8233185702</v>
       </c>
       <c r="K8" t="n">
-        <v>1.4</v>
+        <v>1.426710688</v>
       </c>
     </row>
     <row r="9">
@@ -751,16 +751,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7.35011374457938</v>
+        <v>7.35011374457948</v>
       </c>
       <c r="C9" t="n">
-        <v>43.8325458438845</v>
+        <v>43.8325458438849</v>
       </c>
       <c r="D9" t="n">
-        <v>10.3147448792404</v>
+        <v>10.3147448792403</v>
       </c>
       <c r="E9" t="n">
-        <v>12.4335560392006</v>
+        <v>12.4335560392008</v>
       </c>
       <c r="F9" t="n">
         <v>168.357685597693</v>
@@ -772,13 +772,50 @@
         <v>95.7587653583263</v>
       </c>
       <c r="I9" t="n">
-        <v>11.7931860222976</v>
+        <v>11.7931860222977</v>
       </c>
       <c r="J9" t="n">
         <v>10.9561100643441</v>
       </c>
       <c r="K9" t="n">
-        <v>1.4</v>
+        <v>1.43827353610753</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>2021年</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="C10" t="n">
+        <v>52.4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="E10" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F10" t="n">
+        <v>170.8</v>
+      </c>
+      <c r="G10" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="H10" t="n">
+        <v>107</v>
+      </c>
+      <c r="I10" t="n">
+        <v>13</v>
+      </c>
+      <c r="J10" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>
